--- a/KPIDashboard/WebApplication1/App_Data/test1.xlsx
+++ b/KPIDashboard/WebApplication1/App_Data/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhan\Downloads\New folder\MyAwsomeProject-master\WebApplication1\WebApplication1\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SB\TEM_Apps  KPI_Dashboard\KPIDashboard\WebApplication1\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,22 +62,22 @@
     <t>ActualUsCase</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>cc</t>
+    <t>EPU</t>
+  </si>
+  <si>
+    <t>Tomo</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>EPU 1.10.0</t>
+  </si>
+  <si>
+    <t>Tomo v4.4.1</t>
+  </si>
+  <si>
+    <t>Maps 3.2</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,28 +495,28 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>156</v>
+        <v>750</v>
       </c>
       <c r="H2">
-        <v>157</v>
+        <v>600</v>
       </c>
       <c r="I2">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="J2">
         <v>66</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -530,28 +530,28 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>156</v>
+        <v>750</v>
       </c>
       <c r="H3">
-        <v>157</v>
+        <v>700</v>
       </c>
       <c r="I3">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="J3">
         <v>66</v>
       </c>
       <c r="K3">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -565,28 +565,28 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>156</v>
+        <v>750</v>
       </c>
       <c r="H4">
-        <v>157</v>
+        <v>730</v>
       </c>
       <c r="I4">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="J4">
         <v>66</v>
       </c>
       <c r="K4">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/KPIDashboard/WebApplication1/App_Data/test1.xlsx
+++ b/KPIDashboard/WebApplication1/App_Data/test1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SB\TEM_Apps  KPI_Dashboard\KPIDashboard\WebApplication1\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryma\Documents\GitHub\Current\KPIDashboard\WebApplication1\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abc" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Location</t>
   </si>
@@ -78,12 +78,60 @@
   </si>
   <si>
     <t>Maps 3.2</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>rrrrrrrrrrr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +637,216 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>750</v>
+      </c>
+      <c r="H5">
+        <v>732</v>
+      </c>
+      <c r="I5">
+        <v>750</v>
+      </c>
+      <c r="J5">
+        <v>78</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>750</v>
+      </c>
+      <c r="H6">
+        <v>733</v>
+      </c>
+      <c r="I6">
+        <v>750</v>
+      </c>
+      <c r="J6">
+        <v>78</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>750</v>
+      </c>
+      <c r="H7">
+        <v>731</v>
+      </c>
+      <c r="I7">
+        <v>750</v>
+      </c>
+      <c r="J7">
+        <v>76</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>750</v>
+      </c>
+      <c r="H8">
+        <v>733</v>
+      </c>
+      <c r="I8">
+        <v>750</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>565</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>565</v>
+      </c>
+      <c r="J9">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>565</v>
+      </c>
+      <c r="H10">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>565</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KPIDashboard/WebApplication1/App_Data/test1.xlsx
+++ b/KPIDashboard/WebApplication1/App_Data/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SB\TEM_Apps  KPI_Dashboard\KPIDashboard\WebApplication1\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhan\Desktop\KPITry\KPIDashboard\WebApplication1\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Location</t>
   </si>
@@ -68,22 +68,13 @@
     <t>g</t>
   </si>
   <si>
-    <t>zanub</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>hj</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>bnb</t>
+    <t>znb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfggh </t>
+  </si>
+  <si>
+    <t>khn,</t>
   </si>
 </sst>
 </file>
@@ -435,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:L4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,41 +551,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>750</v>
-      </c>
-      <c r="H4">
-        <v>700</v>
-      </c>
-      <c r="I4">
-        <v>750</v>
-      </c>
-      <c r="J4">
-        <v>55</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KPIDashboard/WebApplication1/App_Data/test1.xlsx
+++ b/KPIDashboard/WebApplication1/App_Data/test1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Location</t>
   </si>
@@ -71,10 +71,16 @@
     <t>znb</t>
   </si>
   <si>
-    <t xml:space="preserve">tfggh </t>
-  </si>
-  <si>
     <t>khn,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f </t>
+  </si>
+  <si>
+    <t xml:space="preserve">g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h </t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,10 +527,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -549,6 +555,76 @@
       </c>
       <c r="K3">
         <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>750</v>
+      </c>
+      <c r="H4">
+        <v>432</v>
+      </c>
+      <c r="I4">
+        <v>750</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>750</v>
+      </c>
+      <c r="H5">
+        <v>211</v>
+      </c>
+      <c r="I5">
+        <v>750</v>
+      </c>
+      <c r="J5">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/KPIDashboard/WebApplication1/App_Data/test1.xlsx
+++ b/KPIDashboard/WebApplication1/App_Data/test1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhan\Desktop\KPITry\KPIDashboard\WebApplication1\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryma\Documents\GitHub\Current\KPIDashboard\WebApplication1\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abc" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Location</t>
   </si>
@@ -81,12 +81,21 @@
   </si>
   <si>
     <t xml:space="preserve">h </t>
+  </si>
+  <si>
+    <t>DSTER</t>
+  </si>
+  <si>
+    <t>RTY</t>
+  </si>
+  <si>
+    <t>TYH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,11 +440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,157 +462,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>750</v>
-      </c>
-      <c r="H2">
-        <v>700</v>
-      </c>
-      <c r="I2">
-        <v>750</v>
-      </c>
-      <c r="J2">
-        <v>55</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>44</v>
-      </c>
-      <c r="G3">
-        <v>750</v>
-      </c>
-      <c r="H3">
-        <v>700</v>
-      </c>
-      <c r="I3">
-        <v>750</v>
-      </c>
-      <c r="J3">
-        <v>55</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
+      <c r="G3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>750</v>
-      </c>
-      <c r="H4">
-        <v>432</v>
-      </c>
-      <c r="I4">
-        <v>750</v>
-      </c>
-      <c r="J4">
-        <v>55</v>
-      </c>
-      <c r="K4">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>15</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -615,7 +534,7 @@
         <v>750</v>
       </c>
       <c r="H5">
-        <v>211</v>
+        <v>700</v>
       </c>
       <c r="I5">
         <v>750</v>
@@ -624,6 +543,111 @@
         <v>55</v>
       </c>
       <c r="K5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>750</v>
+      </c>
+      <c r="H6">
+        <v>700</v>
+      </c>
+      <c r="I6">
+        <v>750</v>
+      </c>
+      <c r="J6">
+        <v>55</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>750</v>
+      </c>
+      <c r="H7">
+        <v>432</v>
+      </c>
+      <c r="I7">
+        <v>750</v>
+      </c>
+      <c r="J7">
+        <v>55</v>
+      </c>
+      <c r="K7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>750</v>
+      </c>
+      <c r="H8">
+        <v>211</v>
+      </c>
+      <c r="I8">
+        <v>750</v>
+      </c>
+      <c r="J8">
+        <v>55</v>
+      </c>
+      <c r="K8">
         <v>35</v>
       </c>
     </row>
